--- a/helloword.xlsx
+++ b/helloword.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEEA09-C6AF-E84D-BC59-B25EEBEEC4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17700" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hello" sheetId="2" r:id="rId4"/>
+    <sheet name="hello" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t xml:space="preserve">.特别注意：导入数值加逗号格式，很经常被Excel带成数值，可在前面加个'号，或设置单元格格式为文本			
 .导入规则：
@@ -37,8 +38,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <sz val="16"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>身高</t>
     </r>
@@ -70,8 +72,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <sz val="16"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>181</t>
     </r>
@@ -88,8 +91,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <sz val="16"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>182</t>
     </r>
@@ -98,13 +102,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,20 +142,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,110 +424,181 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <cols>
-    <col customWidth="true" max="1" min="1" width="85"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" ht="100" customHeight="true">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="21">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="9" spans="1:9" ht="21">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="10" spans="1:9" ht="21">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>